--- a/AAII_Financials/Yearly/HWEN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HWEN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/HWEN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HWEN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>HWEN</t>
   </si>
@@ -1106,8 +1106,8 @@
       <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
-        <v>800</v>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -2922,8 +2922,8 @@
       <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3267,8 +3267,8 @@
       <c r="I94" s="3">
         <v>4400</v>
       </c>
-      <c r="J94" s="3">
-        <v>200</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3447,8 +3447,8 @@
       <c r="I100" s="3">
         <v>-5000</v>
       </c>
-      <c r="J100" s="3">
-        <v>-3600</v>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3480,8 +3480,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
